--- a/Modelo - E2/Parámetros.xlsx
+++ b/Modelo - E2/Parámetros.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hebersmac/Desktop/UC/2021-1/OPTIMIZACIÓN/PROYECTO/REPOSITORIO/42069/Modelo - E2/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00E2456-1F46-4544-B322-0048DABB8C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-4140" yWindow="-21100" windowWidth="19200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Parametros" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -100,29 +109,34 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <sz val="12.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF212529"/>
       <name val="GobCL"/>
     </font>
@@ -132,7 +146,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -142,7 +156,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -156,78 +176,76 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -417,27 +435,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.29"/>
-    <col customWidth="1" min="2" max="2" width="15.86"/>
-    <col customWidth="1" min="3" max="3" width="16.71"/>
-    <col customWidth="1" min="4" max="4" width="15.0"/>
-    <col customWidth="1" min="5" max="5" width="43.57"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,7 +471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" ht="14">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -456,11 +479,11 @@
         <v>4</v>
       </c>
       <c r="C2" s="6">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="E2" s="7"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" ht="28">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -468,11 +491,11 @@
         <v>4</v>
       </c>
       <c r="C3" s="8">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" ht="14">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -480,11 +503,11 @@
         <v>4</v>
       </c>
       <c r="C4" s="8">
-        <v>256.0</v>
+        <v>256</v>
       </c>
       <c r="E4" s="9"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" ht="28">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -492,11 +515,11 @@
         <v>4</v>
       </c>
       <c r="C5" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E5" s="9"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" ht="28">
       <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
@@ -508,7 +531,7 @@
       </c>
       <c r="E6" s="7"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" ht="28">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
@@ -520,7 +543,7 @@
       </c>
       <c r="E7" s="11"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" ht="28">
       <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
@@ -528,11 +551,11 @@
         <v>9</v>
       </c>
       <c r="C8" s="8">
-        <v>275.0</v>
+        <v>275</v>
       </c>
       <c r="E8" s="7"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" ht="28">
       <c r="A9" s="10" t="s">
         <v>12</v>
       </c>
@@ -543,7 +566,7 @@
         <v>945.8</v>
       </c>
     </row>
-    <row r="10" ht="29.25" customHeight="1">
+    <row r="10" spans="1:5" ht="29.25" customHeight="1">
       <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
@@ -551,10 +574,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="12">
-        <v>188521.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>188521</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28">
       <c r="A11" s="13" t="s">
         <v>15</v>
       </c>
@@ -562,10 +585,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="8">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="28">
       <c r="A12" s="8" t="s">
         <v>16</v>
       </c>
@@ -573,10 +596,10 @@
         <v>17</v>
       </c>
       <c r="C12" s="8">
-        <v>36.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28">
       <c r="A13" s="13" t="s">
         <v>18</v>
       </c>
@@ -584,10 +607,10 @@
         <v>17</v>
       </c>
       <c r="C13" s="8">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28">
       <c r="A14" s="13" t="s">
         <v>19</v>
       </c>
@@ -598,7 +621,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" ht="14">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -612,7 +635,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" ht="28">
       <c r="A16" s="13" t="s">
         <v>24</v>
       </c>
@@ -620,13 +643,13 @@
         <v>17</v>
       </c>
       <c r="C16" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="8">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="42">
       <c r="A17" s="13" t="s">
         <v>25</v>
       </c>
@@ -634,14 +657,14 @@
         <v>4</v>
       </c>
       <c r="C17" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="7"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" ht="42">
       <c r="A18" s="13" t="s">
         <v>26</v>
       </c>
@@ -649,14 +672,14 @@
         <v>4</v>
       </c>
       <c r="C18" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="7"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" ht="42">
       <c r="A19" s="13" t="s">
         <v>27</v>
       </c>
@@ -664,42 +687,42 @@
         <v>4</v>
       </c>
       <c r="C19" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E19" s="7"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" ht="13">
       <c r="A20" s="15"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" ht="16">
       <c r="E22" s="16"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" ht="13">
       <c r="E23" s="7"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" ht="16">
       <c r="E24" s="17"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" ht="13">
       <c r="E25" s="7"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" ht="13">
       <c r="E26" s="7"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5" ht="13">
       <c r="E27" s="7"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5" ht="13">
       <c r="E28" s="7"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5" ht="13">
       <c r="E29" s="7"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>